--- a/test.xlsx
+++ b/test.xlsx
@@ -1,120 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikolajirtuganov/PycharmProjects/ege programs/qr_reader/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C328FDD-23CD-8A46-AEC2-AAEB4FAC7AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4100" yWindow="1760" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4100" yWindow="1760" windowWidth="28040" windowHeight="17360" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Список" sheetId="1" r:id="rId1"/>
-    <sheet name="13-04-2022" sheetId="2" r:id="rId2"/>
+    <sheet name="Список" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="13-04-2022" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="18-04-2022" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
-  <si>
-    <t>Номер</t>
-  </si>
-  <si>
-    <t>ФИО</t>
-  </si>
-  <si>
-    <t>Класс</t>
-  </si>
-  <si>
-    <t>Лимит</t>
-  </si>
-  <si>
-    <t>Абрамова Татьяна Тимуровна</t>
-  </si>
-  <si>
-    <t>10а</t>
-  </si>
-  <si>
-    <t>Ушакова Екатерина Георгиевна</t>
-  </si>
-  <si>
-    <t>9а</t>
-  </si>
-  <si>
-    <t>Антонова Надежда Арсентьевна</t>
-  </si>
-  <si>
-    <t>8б</t>
-  </si>
-  <si>
-    <t>Семенов Лев Матвеевич</t>
-  </si>
-  <si>
-    <t>8в</t>
-  </si>
-  <si>
-    <t>Борисова Василиса Максимовна</t>
-  </si>
-  <si>
-    <t>8е</t>
-  </si>
-  <si>
-    <t>Прокофьева Ева Ивановна</t>
-  </si>
-  <si>
-    <t>10б</t>
-  </si>
-  <si>
-    <t>Петров Владислав Иванович</t>
-  </si>
-  <si>
-    <t>11а</t>
-  </si>
-  <si>
-    <t>Кудрявцева Дарина Владимировна</t>
-  </si>
-  <si>
-    <t>11б</t>
-  </si>
-  <si>
-    <t>Губанов Роман Матвеевич</t>
-  </si>
-  <si>
-    <t>11в</t>
-  </si>
-  <si>
-    <t>Калмыков Роман Даниилович</t>
-  </si>
-  <si>
-    <t>11г</t>
-  </si>
-  <si>
-    <t>Посещение</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,21 +49,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,172 +422,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col width="7.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="32" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="6" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="7" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Номер</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Класс</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Лимит</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Абрамова Татьяна Тимуровна</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10а</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123457</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ушакова Екатерина Георгиевна</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9а</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>123458</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Антонова Надежда Арсентьевна</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8б</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>123459</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Семенов Лев Матвеевич</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8в</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>123460</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Борисова Василиса Максимовна</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8е</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>123461</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Прокофьева Ева Ивановна</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10б</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11">
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>123462</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Петров Владислав Иванович</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>11а</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>123463</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Кудрявцева Дарина Владимировна</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>11б</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>123464</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Губанов Роман Матвеевич</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>11в</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>123465</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Калмыков Роман Даниилович</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>11г</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>2</v>
       </c>
     </row>
@@ -622,66 +649,176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
+    <col width="27.5" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Номер</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Класс</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Лимит</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Посещение</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Абрамова Татьяна Тимуровна</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10а</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ушакова Екатерина Георгиевна</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9а</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
+      <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="E3">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Номер</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ФИО</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Класс</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Лимит</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Посещение</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>123456</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Абрамова Татьяна Тимуровна</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10а</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123457</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Ушакова Екатерина Георгиевна</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>9а</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
         <v>2</v>
       </c>
     </row>
